--- a/data/financial_statements/sofp/GIS.xlsx
+++ b/data/financial_statements/sofp/GIS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,132 +598,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>644100000</v>
@@ -733,8 +847,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1834000000</v>
@@ -858,8 +972,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>2121300000</v>
@@ -983,8 +1097,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>731000000</v>
@@ -1024,8 +1138,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>5330600000</v>
@@ -1149,8 +1263,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>3358000000</v>
@@ -1274,8 +1388,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D8">
         <v>514000000</v>
@@ -1288,8 +1402,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>21450800000</v>
@@ -1413,8 +1527,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1180400000</v>
@@ -1538,8 +1652,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>25989200000</v>
@@ -1663,8 +1777,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>31319800000</v>
@@ -1788,8 +1902,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1153400000</v>
@@ -1913,8 +2027,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>4022600000</v>
@@ -2038,8 +2152,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1964300000</v>
@@ -2163,8 +2277,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>2067900000</v>
@@ -2288,8 +2402,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>9208200000</v>
@@ -2413,8 +2527,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>8622500000</v>
@@ -2538,8 +2652,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>2186900000</v>
@@ -2663,8 +2777,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>930100000</v>
@@ -2788,8 +2902,8 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>11739500000</v>
@@ -2913,8 +3027,8 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>20947700000</v>
@@ -3038,8 +3152,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1155300000</v>
@@ -3163,8 +3277,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>75500000</v>
@@ -3288,8 +3402,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>18991900000</v>
@@ -3413,8 +3527,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>8023500000</v>
@@ -3538,8 +3652,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>10372100000</v>
@@ -3663,8 +3777,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>10372100000</v>
@@ -3788,8 +3902,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>31319800000</v>
@@ -3913,8 +4027,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>590200000</v>
@@ -4038,8 +4152,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>-11078700000</v>
@@ -4163,8 +4277,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>9942700000</v>
@@ -4288,8 +4402,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>10586800000</v>
